--- a/resources/data/codinglist_jo.xlsx
+++ b/resources/data/codinglist_jo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="22710" windowHeight="8640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="22710" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="화면목록" sheetId="1" r:id="rId1"/>
@@ -1737,9 +1737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ5" sqref="AJ5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD79" sqref="AD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -17571,7 +17571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R55" sqref="R55"/>
     </sheetView>

--- a/resources/data/codinglist_jo.xlsx
+++ b/resources/data/codinglist_jo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2580" windowWidth="22710" windowHeight="8640" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="원본-화면목록" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="202">
   <si>
     <t>]}</t>
   </si>
@@ -881,15 +881,19 @@
     <t>../</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yymmdd"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,7 +1527,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1558,7 +1561,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1734,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1742,7 +1744,7 @@
       <selection pane="bottomLeft" activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="1.75" style="16" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="37" customWidth="1"/>
@@ -1787,7 +1789,7 @@
     <col min="44" max="16384" width="6.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="24.75" customHeight="1">
       <c r="A1" s="63" t="s">
         <v>37</v>
       </c>
@@ -1830,7 +1832,7 @@
       <c r="AL1" s="63"/>
       <c r="AM1" s="63"/>
     </row>
-    <row r="2" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="17.25" customHeight="1">
       <c r="A2" s="67" t="s">
         <v>13</v>
       </c>
@@ -1888,7 +1890,7 @@
       <c r="AK2" s="14"/>
       <c r="AL2" s="15"/>
     </row>
-    <row r="3" spans="1:39" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" s="17" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="66" t="s">
         <v>33</v>
       </c>
@@ -1931,7 +1933,7 @@
       <c r="AL3" s="66"/>
       <c r="AM3" s="66"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" s="36" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" s="36" customFormat="1">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
@@ -2324,7 +2326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" s="36" customFormat="1">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" s="36" customFormat="1">
       <c r="A8" s="16" t="s">
         <v>1</v>
       </c>
@@ -2600,7 +2602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" s="36" customFormat="1">
       <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
@@ -2738,7 +2740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" s="36" customFormat="1">
       <c r="A10" s="16" t="s">
         <v>1</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" s="36" customFormat="1">
       <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" s="36" customFormat="1">
       <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" s="36" customFormat="1">
       <c r="A13" s="16" t="s">
         <v>1</v>
       </c>
@@ -3290,7 +3292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" s="36" customFormat="1">
       <c r="A14" s="16" t="s">
         <v>1</v>
       </c>
@@ -3428,7 +3430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" s="36" customFormat="1">
       <c r="A15" s="16" t="s">
         <v>1</v>
       </c>
@@ -3566,7 +3568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" s="36" customFormat="1">
       <c r="A16" s="16" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" s="36" customFormat="1">
       <c r="A17" s="16" t="s">
         <v>1</v>
       </c>
@@ -3842,7 +3844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="36" customFormat="1">
       <c r="A18" s="16" t="s">
         <v>1</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" s="36" customFormat="1">
       <c r="A19" s="16" t="s">
         <v>1</v>
       </c>
@@ -4118,7 +4120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" s="36" customFormat="1">
       <c r="A20" s="16" t="s">
         <v>1</v>
       </c>
@@ -4256,7 +4258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="36" customFormat="1">
       <c r="A21" s="16" t="s">
         <v>1</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" s="36" customFormat="1">
       <c r="A22" s="16" t="s">
         <v>1</v>
       </c>
@@ -4532,7 +4534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" s="36" customFormat="1">
       <c r="A23" s="16" t="s">
         <v>1</v>
       </c>
@@ -4670,7 +4672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" s="36" customFormat="1">
       <c r="A24" s="16" t="s">
         <v>1</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" s="36" customFormat="1">
       <c r="A25" s="16" t="s">
         <v>1</v>
       </c>
@@ -4946,7 +4948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" s="36" customFormat="1">
       <c r="A26" s="16" t="s">
         <v>1</v>
       </c>
@@ -5084,7 +5086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" s="36" customFormat="1">
       <c r="A27" s="16" t="s">
         <v>1</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" s="36" customFormat="1">
       <c r="A28" s="16" t="s">
         <v>1</v>
       </c>
@@ -5360,7 +5362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" s="36" customFormat="1">
       <c r="A29" s="16" t="s">
         <v>1</v>
       </c>
@@ -5498,7 +5500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" s="36" customFormat="1">
       <c r="A30" s="16" t="s">
         <v>1</v>
       </c>
@@ -5636,7 +5638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="36" customFormat="1">
       <c r="A31" s="16" t="s">
         <v>1</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" s="36" customFormat="1">
       <c r="A32" s="16" t="s">
         <v>1</v>
       </c>
@@ -5912,7 +5914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" s="36" customFormat="1">
       <c r="A33" s="16" t="s">
         <v>1</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" s="36" customFormat="1">
       <c r="A34" s="16" t="s">
         <v>1</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" s="36" customFormat="1">
       <c r="A35" s="16" t="s">
         <v>1</v>
       </c>
@@ -6326,7 +6328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" s="36" customFormat="1">
       <c r="A36" s="16" t="s">
         <v>1</v>
       </c>
@@ -6464,7 +6466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" s="36" customFormat="1">
       <c r="A37" s="16" t="s">
         <v>1</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" s="36" customFormat="1">
       <c r="A38" s="16" t="s">
         <v>1</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" s="36" customFormat="1">
       <c r="A39" s="16" t="s">
         <v>1</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" s="36" customFormat="1">
       <c r="A40" s="16" t="s">
         <v>1</v>
       </c>
@@ -7016,7 +7018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" s="36" customFormat="1">
       <c r="A41" s="16" t="s">
         <v>1</v>
       </c>
@@ -7154,7 +7156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" s="36" customFormat="1">
       <c r="A42" s="16" t="s">
         <v>1</v>
       </c>
@@ -7292,7 +7294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="36" customFormat="1">
       <c r="A43" s="16" t="s">
         <v>1</v>
       </c>
@@ -7430,7 +7432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" s="36" customFormat="1">
       <c r="A44" s="16" t="s">
         <v>1</v>
       </c>
@@ -7568,7 +7570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" s="36" customFormat="1">
       <c r="A45" s="16" t="s">
         <v>1</v>
       </c>
@@ -7706,7 +7708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" s="36" customFormat="1">
       <c r="A46" s="16" t="s">
         <v>1</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" s="36" customFormat="1">
       <c r="A47" s="16" t="s">
         <v>1</v>
       </c>
@@ -7982,7 +7984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" s="36" customFormat="1">
       <c r="A48" s="16" t="s">
         <v>1</v>
       </c>
@@ -8120,7 +8122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" s="36" customFormat="1">
       <c r="A49" s="16" t="s">
         <v>1</v>
       </c>
@@ -8258,7 +8260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" s="36" customFormat="1">
       <c r="A50" s="16" t="s">
         <v>1</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" s="36" customFormat="1">
       <c r="A51" s="16" t="s">
         <v>1</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" s="36" customFormat="1">
       <c r="A52" s="16" t="s">
         <v>1</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" s="36" customFormat="1">
       <c r="A53" s="16" t="s">
         <v>1</v>
       </c>
@@ -8810,7 +8812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" s="36" customFormat="1">
       <c r="A54" s="16" t="s">
         <v>1</v>
       </c>
@@ -8948,7 +8950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" s="36" customFormat="1">
       <c r="A55" s="16" t="s">
         <v>1</v>
       </c>
@@ -9086,7 +9088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" s="36" customFormat="1">
       <c r="A56" s="16" t="s">
         <v>1</v>
       </c>
@@ -9224,13 +9226,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" s="36" customFormat="1">
       <c r="A57" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="46" t="str">
         <f>'원본-화면목록'!A54</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>2</v>
@@ -9242,9 +9244,9 @@
       <c r="E57" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="27" t="str">
+      <c r="F57" s="27">
         <f>'원본-화면목록'!C54</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>39</v>
@@ -9362,13 +9364,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" s="36" customFormat="1">
       <c r="A58" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="46" t="str">
         <f>'원본-화면목록'!A55</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>2</v>
@@ -9380,9 +9382,9 @@
       <c r="E58" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="27" t="str">
+      <c r="F58" s="27">
         <f>'원본-화면목록'!C55</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>39</v>
@@ -9500,13 +9502,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" s="36" customFormat="1">
       <c r="A59" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="46" t="str">
         <f>'원본-화면목록'!A56</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>2</v>
@@ -9518,9 +9520,9 @@
       <c r="E59" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="27" t="str">
+      <c r="F59" s="27">
         <f>'원본-화면목록'!C56</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>39</v>
@@ -9638,13 +9640,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" s="36" customFormat="1">
       <c r="A60" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B60" s="46" t="str">
         <f>'원본-화면목록'!A57</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>2</v>
@@ -9656,9 +9658,9 @@
       <c r="E60" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="27" t="str">
+      <c r="F60" s="27">
         <f>'원본-화면목록'!C57</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>39</v>
@@ -9776,13 +9778,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" s="36" customFormat="1">
       <c r="A61" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="46" t="str">
         <f>'원본-화면목록'!A58</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>2</v>
@@ -9794,9 +9796,9 @@
       <c r="E61" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="27" t="str">
+      <c r="F61" s="27">
         <f>'원본-화면목록'!C58</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>39</v>
@@ -9914,13 +9916,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" s="36" customFormat="1">
       <c r="A62" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B62" s="46" t="str">
         <f>'원본-화면목록'!A59</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>2</v>
@@ -9932,9 +9934,9 @@
       <c r="E62" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="27" t="str">
+      <c r="F62" s="27">
         <f>'원본-화면목록'!C59</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>39</v>
@@ -10052,13 +10054,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" s="36" customFormat="1">
       <c r="A63" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="46" t="str">
         <f>'원본-화면목록'!A60</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>2</v>
@@ -10070,9 +10072,9 @@
       <c r="E63" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="27" t="str">
+      <c r="F63" s="27">
         <f>'원본-화면목록'!C60</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G63" s="16" t="s">
         <v>39</v>
@@ -10190,13 +10192,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" s="36" customFormat="1">
       <c r="A64" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B64" s="46" t="str">
         <f>'원본-화면목록'!A61</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>2</v>
@@ -10208,9 +10210,9 @@
       <c r="E64" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="27" t="str">
+      <c r="F64" s="27">
         <f>'원본-화면목록'!C61</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>39</v>
@@ -10328,13 +10330,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" s="36" customFormat="1">
       <c r="A65" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B65" s="46" t="str">
         <f>'원본-화면목록'!A62</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>2</v>
@@ -10346,9 +10348,9 @@
       <c r="E65" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="27" t="str">
+      <c r="F65" s="27">
         <f>'원본-화면목록'!C62</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>39</v>
@@ -10466,13 +10468,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" s="36" customFormat="1">
       <c r="A66" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="46" t="str">
         <f>'원본-화면목록'!A63</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>2</v>
@@ -10484,9 +10486,9 @@
       <c r="E66" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="27" t="str">
+      <c r="F66" s="27">
         <f>'원본-화면목록'!C63</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>39</v>
@@ -10604,13 +10606,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" s="36" customFormat="1">
       <c r="A67" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="46" t="str">
         <f>'원본-화면목록'!A64</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>2</v>
@@ -10622,9 +10624,9 @@
       <c r="E67" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="27" t="str">
+      <c r="F67" s="27">
         <f>'원본-화면목록'!C64</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>39</v>
@@ -10742,13 +10744,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" s="36" customFormat="1">
       <c r="A68" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B68" s="46" t="str">
         <f>'원본-화면목록'!A65</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>2</v>
@@ -10760,9 +10762,9 @@
       <c r="E68" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="27" t="str">
+      <c r="F68" s="27">
         <f>'원본-화면목록'!C65</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>39</v>
@@ -10880,13 +10882,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" s="36" customFormat="1">
       <c r="A69" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="46" t="str">
         <f>'원본-화면목록'!A66</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>2</v>
@@ -10898,9 +10900,9 @@
       <c r="E69" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="27" t="str">
+      <c r="F69" s="27">
         <f>'원본-화면목록'!C66</f>
-        <v>미정</v>
+        <v>43413</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>39</v>
@@ -11018,7 +11020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" s="36" customFormat="1">
       <c r="A70" s="16" t="s">
         <v>1</v>
       </c>
@@ -11156,7 +11158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" s="36" customFormat="1">
       <c r="A71" s="16" t="s">
         <v>1</v>
       </c>
@@ -11294,7 +11296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" s="36" customFormat="1">
       <c r="A72" s="16" t="s">
         <v>1</v>
       </c>
@@ -11432,7 +11434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" s="36" customFormat="1">
       <c r="A73" s="16" t="s">
         <v>1</v>
       </c>
@@ -11570,7 +11572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" s="36" customFormat="1">
       <c r="A74" s="16" t="s">
         <v>1</v>
       </c>
@@ -11708,7 +11710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" s="36" customFormat="1">
       <c r="A75" s="16" t="s">
         <v>1</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" s="36" customFormat="1">
       <c r="A76" s="16" t="s">
         <v>1</v>
       </c>
@@ -11984,7 +11986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" s="36" customFormat="1">
       <c r="A77" s="16" t="s">
         <v>1</v>
       </c>
@@ -12122,7 +12124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" s="36" customFormat="1">
       <c r="A78" s="16" t="s">
         <v>1</v>
       </c>
@@ -12260,7 +12262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" s="36" customFormat="1">
       <c r="A79" s="16" t="s">
         <v>1</v>
       </c>
@@ -12398,7 +12400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" s="36" customFormat="1">
       <c r="A80" s="16" t="s">
         <v>1</v>
       </c>
@@ -12536,7 +12538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" s="36" customFormat="1">
       <c r="A81" s="16" t="s">
         <v>1</v>
       </c>
@@ -12674,7 +12676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" s="36" customFormat="1">
       <c r="A82" s="16" t="s">
         <v>1</v>
       </c>
@@ -12812,7 +12814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" s="36" customFormat="1">
       <c r="A83" s="16" t="s">
         <v>1</v>
       </c>
@@ -12950,7 +12952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" s="36" customFormat="1">
       <c r="A84" s="16" t="s">
         <v>1</v>
       </c>
@@ -13088,7 +13090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" s="36" customFormat="1">
       <c r="A85" s="16" t="s">
         <v>1</v>
       </c>
@@ -13226,7 +13228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" s="36" customFormat="1">
       <c r="A86" s="16" t="s">
         <v>1</v>
       </c>
@@ -13364,7 +13366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" s="36" customFormat="1">
       <c r="A87" s="16" t="s">
         <v>1</v>
       </c>
@@ -13502,7 +13504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" s="36" customFormat="1">
       <c r="A88" s="16" t="s">
         <v>1</v>
       </c>
@@ -13640,7 +13642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" s="36" customFormat="1">
       <c r="A89" s="16" t="s">
         <v>1</v>
       </c>
@@ -13778,7 +13780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" s="36" customFormat="1">
       <c r="A90" s="16" t="s">
         <v>1</v>
       </c>
@@ -13916,7 +13918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" s="36" customFormat="1">
       <c r="A91" s="16" t="s">
         <v>1</v>
       </c>
@@ -14054,7 +14056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" s="36" customFormat="1">
       <c r="A92" s="16" t="s">
         <v>1</v>
       </c>
@@ -14192,7 +14194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" s="36" customFormat="1">
       <c r="A93" s="16" t="s">
         <v>1</v>
       </c>
@@ -14330,7 +14332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" s="36" customFormat="1">
       <c r="A94" s="16" t="s">
         <v>1</v>
       </c>
@@ -14468,7 +14470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" s="36" customFormat="1">
       <c r="A95" s="16" t="s">
         <v>1</v>
       </c>
@@ -14606,7 +14608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39" s="36" customFormat="1">
       <c r="A96" s="16" t="s">
         <v>1</v>
       </c>
@@ -14744,7 +14746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" s="36" customFormat="1">
       <c r="A97" s="16" t="s">
         <v>1</v>
       </c>
@@ -14882,7 +14884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" s="36" customFormat="1">
       <c r="A98" s="16" t="s">
         <v>1</v>
       </c>
@@ -15020,7 +15022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" s="36" customFormat="1">
       <c r="A99" s="16" t="s">
         <v>1</v>
       </c>
@@ -15158,7 +15160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" s="36" customFormat="1">
       <c r="A100" s="16" t="s">
         <v>1</v>
       </c>
@@ -15296,7 +15298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39" s="36" customFormat="1">
       <c r="A101" s="16" t="s">
         <v>1</v>
       </c>
@@ -15434,7 +15436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39" s="36" customFormat="1">
       <c r="A102" s="16" t="s">
         <v>1</v>
       </c>
@@ -15572,7 +15574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:39" s="36" customFormat="1">
       <c r="A103" s="16" t="s">
         <v>1</v>
       </c>
@@ -15710,7 +15712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" s="36" customFormat="1">
       <c r="A104" s="16" t="s">
         <v>1</v>
       </c>
@@ -15848,7 +15850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" s="36" customFormat="1">
       <c r="A105" s="16" t="s">
         <v>1</v>
       </c>
@@ -15986,7 +15988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" s="36" customFormat="1">
       <c r="A106" s="16" t="s">
         <v>1</v>
       </c>
@@ -16124,7 +16126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39" s="36" customFormat="1">
       <c r="A107" s="16" t="s">
         <v>1</v>
       </c>
@@ -16262,7 +16264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:39" s="36" customFormat="1">
       <c r="A108" s="16" t="s">
         <v>1</v>
       </c>
@@ -16400,7 +16402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39" s="36" customFormat="1">
       <c r="A109" s="16" t="s">
         <v>1</v>
       </c>
@@ -16538,7 +16540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:39" s="36" customFormat="1">
       <c r="A110" s="16" t="s">
         <v>1</v>
       </c>
@@ -16676,7 +16678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:39" s="36" customFormat="1">
       <c r="A111" s="16" t="s">
         <v>1</v>
       </c>
@@ -16814,7 +16816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:39" s="36" customFormat="1">
       <c r="A112" s="16" t="s">
         <v>1</v>
       </c>
@@ -16952,7 +16954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:39" s="36" customFormat="1">
       <c r="A113" s="16" t="s">
         <v>1</v>
       </c>
@@ -17090,7 +17092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:39" s="36" customFormat="1">
       <c r="A114" s="16" t="s">
         <v>1</v>
       </c>
@@ -17228,7 +17230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:39" s="36" customFormat="1">
       <c r="A115" s="16" t="s">
         <v>1</v>
       </c>
@@ -17366,7 +17368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39" s="36" customFormat="1">
       <c r="A116" s="16" t="s">
         <v>1</v>
       </c>
@@ -17504,7 +17506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:39" ht="16.5">
       <c r="A117" s="66" t="s">
         <v>0</v>
       </c>
@@ -17568,15 +17570,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R55" sqref="R55"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="6" customWidth="1"/>
@@ -17594,7 +17596,7 @@
     <col min="28" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -17677,7 +17679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -17727,7 +17729,7 @@
       <c r="Z2" s="59"/>
       <c r="AA2" s="59"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
@@ -17775,7 +17777,7 @@
       <c r="Z3" s="59"/>
       <c r="AA3" s="59"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
@@ -17834,7 +17836,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -17895,7 +17897,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -17954,7 +17956,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="51" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -18013,7 +18015,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -18072,7 +18074,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -18131,7 +18133,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -18190,7 +18192,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -18249,7 +18251,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -18308,7 +18310,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -18367,7 +18369,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -18426,7 +18428,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="51" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -18485,7 +18487,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -18548,7 +18550,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
@@ -18607,7 +18609,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -18666,7 +18668,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
@@ -18725,7 +18727,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -18784,7 +18786,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -18843,7 +18845,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
@@ -18902,7 +18904,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
@@ -18963,7 +18965,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
@@ -19022,7 +19024,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
@@ -19081,7 +19083,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26" s="7" t="s">
         <v>19</v>
       </c>
@@ -19140,7 +19142,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
@@ -19199,7 +19201,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28" s="7" t="s">
         <v>19</v>
       </c>
@@ -19258,7 +19260,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29" s="7" t="s">
         <v>19</v>
       </c>
@@ -19317,7 +19319,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27">
       <c r="A30" s="7" t="s">
         <v>19</v>
       </c>
@@ -19376,7 +19378,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31" s="7" t="s">
         <v>19</v>
       </c>
@@ -19435,7 +19437,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27">
       <c r="A32" s="7" t="s">
         <v>19</v>
       </c>
@@ -19496,7 +19498,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27">
       <c r="A33" s="7" t="s">
         <v>19</v>
       </c>
@@ -19555,7 +19557,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27">
       <c r="A34" s="7" t="s">
         <v>19</v>
       </c>
@@ -19614,7 +19616,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27">
       <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
@@ -19673,7 +19675,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27">
       <c r="A36" s="7" t="s">
         <v>19</v>
       </c>
@@ -19732,7 +19734,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27">
       <c r="A37" s="7" t="s">
         <v>19</v>
       </c>
@@ -19791,7 +19793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27">
       <c r="A38" s="7" t="s">
         <v>19</v>
       </c>
@@ -19850,7 +19852,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" s="51" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>19</v>
       </c>
@@ -19909,7 +19911,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27">
       <c r="A40" s="7" t="s">
         <v>19</v>
       </c>
@@ -19972,7 +19974,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27">
       <c r="A41" s="7" t="s">
         <v>19</v>
       </c>
@@ -20031,7 +20033,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27">
       <c r="A42" s="7" t="s">
         <v>19</v>
       </c>
@@ -20092,7 +20094,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27">
       <c r="A43" s="7" t="s">
         <v>19</v>
       </c>
@@ -20151,7 +20153,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27">
       <c r="A44" s="7" t="s">
         <v>19</v>
       </c>
@@ -20210,7 +20212,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27">
       <c r="A45" s="7" t="s">
         <v>19</v>
       </c>
@@ -20269,7 +20271,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27">
       <c r="A46" s="7" t="s">
         <v>19</v>
       </c>
@@ -20328,7 +20330,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27">
       <c r="A47" s="7" t="s">
         <v>19</v>
       </c>
@@ -20387,7 +20389,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27">
       <c r="A48" s="7" t="s">
         <v>19</v>
       </c>
@@ -20446,7 +20448,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27">
       <c r="A49" s="7" t="s">
         <v>19</v>
       </c>
@@ -20507,7 +20509,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27">
       <c r="A50" s="7" t="s">
         <v>19</v>
       </c>
@@ -20568,7 +20570,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27">
       <c r="A51" s="7" t="s">
         <v>19</v>
       </c>
@@ -20627,7 +20629,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27">
       <c r="A52" s="7" t="s">
         <v>19</v>
       </c>
@@ -20688,7 +20690,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" s="51" customFormat="1">
       <c r="A53" s="7" t="s">
         <v>19</v>
       </c>
@@ -20747,15 +20749,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27">
       <c r="A54" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B54" s="55">
         <v>43416</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>57</v>
+      <c r="C54" s="8">
+        <v>43413</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>57</v>
@@ -20810,15 +20812,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27">
       <c r="A55" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B55" s="55">
         <v>43416</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>57</v>
+      <c r="C55" s="8">
+        <v>43413</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>57</v>
@@ -20869,15 +20871,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27">
       <c r="A56" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B56" s="55">
         <v>43416</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>57</v>
+      <c r="C56" s="8">
+        <v>43413</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>57</v>
@@ -20930,15 +20932,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27">
       <c r="A57" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B57" s="55">
         <v>43416</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>57</v>
+      <c r="C57" s="8">
+        <v>43413</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>57</v>
@@ -20991,15 +20993,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27">
       <c r="A58" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B58" s="55">
         <v>43416</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>57</v>
+      <c r="C58" s="8">
+        <v>43413</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>57</v>
@@ -21050,15 +21052,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27">
       <c r="A59" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B59" s="55">
         <v>43416</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>57</v>
+      <c r="C59" s="8">
+        <v>43413</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>57</v>
@@ -21109,15 +21111,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27">
       <c r="A60" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B60" s="55">
         <v>43416</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>57</v>
+      <c r="C60" s="8">
+        <v>43413</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>57</v>
@@ -21168,15 +21170,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27">
       <c r="A61" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B61" s="55">
         <v>43416</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>57</v>
+      <c r="C61" s="8">
+        <v>43413</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>57</v>
@@ -21229,15 +21231,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27">
       <c r="A62" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B62" s="55">
         <v>43416</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>57</v>
+      <c r="C62" s="8">
+        <v>43413</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>57</v>
@@ -21288,15 +21290,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27">
       <c r="A63" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B63" s="55">
         <v>43416</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>57</v>
+      <c r="C63" s="8">
+        <v>43413</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>57</v>
@@ -21349,15 +21351,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27">
       <c r="A64" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B64" s="55">
         <v>43416</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>57</v>
+      <c r="C64" s="8">
+        <v>43413</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>57</v>
@@ -21408,15 +21410,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27">
       <c r="A65" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B65" s="55">
         <v>43416</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>57</v>
+      <c r="C65" s="8">
+        <v>43413</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>57</v>
@@ -21467,15 +21469,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" s="51" customFormat="1">
       <c r="A66" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B66" s="55">
         <v>43416</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>57</v>
+      <c r="C66" s="8">
+        <v>43413</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>57</v>
@@ -21526,7 +21528,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27">
       <c r="A67" s="7" t="s">
         <v>19</v>
       </c>
@@ -21589,7 +21591,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27">
       <c r="A68" s="7" t="s">
         <v>19</v>
       </c>
@@ -21648,7 +21650,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27">
       <c r="A69" s="7" t="s">
         <v>19</v>
       </c>
@@ -21707,7 +21709,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27">
       <c r="A70" s="7" t="s">
         <v>19</v>
       </c>
@@ -21766,7 +21768,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27">
       <c r="A71" s="7" t="s">
         <v>19</v>
       </c>
@@ -21827,7 +21829,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27">
       <c r="A72" s="7" t="s">
         <v>19</v>
       </c>
@@ -21886,7 +21888,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27">
       <c r="A73" s="7" t="s">
         <v>19</v>
       </c>
@@ -21945,7 +21947,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27">
       <c r="A74" s="7" t="s">
         <v>19</v>
       </c>
@@ -22004,7 +22006,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27">
       <c r="A75" s="7" t="s">
         <v>19</v>
       </c>
@@ -22065,7 +22067,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27">
       <c r="A76" s="7" t="s">
         <v>19</v>
       </c>
@@ -22124,7 +22126,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27">
       <c r="A77" s="7" t="s">
         <v>19</v>
       </c>
@@ -22183,7 +22185,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" s="51" customFormat="1">
       <c r="A78" s="7" t="s">
         <v>19</v>
       </c>
@@ -22242,7 +22244,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27">
       <c r="A79" s="7" t="s">
         <v>19</v>
       </c>
@@ -22305,7 +22307,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27">
       <c r="A80" s="7" t="s">
         <v>19</v>
       </c>
@@ -22364,7 +22366,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27">
       <c r="A81" s="7" t="s">
         <v>19</v>
       </c>
@@ -22423,7 +22425,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27">
       <c r="A82" s="7" t="s">
         <v>19</v>
       </c>
@@ -22484,7 +22486,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27">
       <c r="A83" s="7" t="s">
         <v>19</v>
       </c>
@@ -22543,7 +22545,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27">
       <c r="A84" s="7" t="s">
         <v>19</v>
       </c>
@@ -22602,7 +22604,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27">
       <c r="A85" s="7" t="s">
         <v>19</v>
       </c>
@@ -22663,7 +22665,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27">
       <c r="A86" s="7" t="s">
         <v>19</v>
       </c>
@@ -22722,7 +22724,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" s="51" customFormat="1">
       <c r="A87" s="7" t="s">
         <v>19</v>
       </c>
@@ -22781,7 +22783,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27">
       <c r="A88" s="7" t="s">
         <v>19</v>
       </c>
@@ -22840,7 +22842,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27">
       <c r="A89" s="7" t="s">
         <v>19</v>
       </c>
@@ -22901,7 +22903,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27">
       <c r="A90" s="7" t="s">
         <v>19</v>
       </c>
@@ -22962,7 +22964,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27">
       <c r="A91" s="7" t="s">
         <v>19</v>
       </c>
@@ -23021,7 +23023,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" ht="16.5" customHeight="1">
       <c r="A92" s="7" t="s">
         <v>19</v>
       </c>
@@ -23082,7 +23084,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" s="51" customFormat="1">
       <c r="A93" s="7" t="s">
         <v>19</v>
       </c>
@@ -23141,7 +23143,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27">
       <c r="A94" s="7" t="s">
         <v>19</v>
       </c>
@@ -23202,7 +23204,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27">
       <c r="A95" s="7" t="s">
         <v>19</v>
       </c>
@@ -23261,7 +23263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27">
       <c r="A96" s="7" t="s">
         <v>19</v>
       </c>
@@ -23320,7 +23322,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27">
       <c r="A97" s="7" t="s">
         <v>19</v>
       </c>
@@ -23379,7 +23381,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27">
       <c r="A98" s="7" t="s">
         <v>19</v>
       </c>
@@ -23438,7 +23440,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27">
       <c r="A99" s="7" t="s">
         <v>19</v>
       </c>
@@ -23497,7 +23499,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27">
       <c r="A100" s="7" t="s">
         <v>19</v>
       </c>
@@ -23556,7 +23558,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" s="51" customFormat="1">
       <c r="A101" s="7" t="s">
         <v>19</v>
       </c>
@@ -23615,7 +23617,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27">
       <c r="A102" s="7" t="s">
         <v>19</v>
       </c>
@@ -23676,7 +23678,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27">
       <c r="A103" s="7" t="s">
         <v>19</v>
       </c>
@@ -23735,7 +23737,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" s="51" customFormat="1">
       <c r="A104" s="7" t="s">
         <v>19</v>
       </c>
@@ -23794,7 +23796,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27">
       <c r="A105" s="7" t="s">
         <v>19</v>
       </c>
@@ -23855,7 +23857,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27">
       <c r="A106" s="7" t="s">
         <v>19</v>
       </c>
@@ -23914,7 +23916,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" s="51" customFormat="1">
       <c r="A107" s="7" t="s">
         <v>19</v>
       </c>
@@ -23973,7 +23975,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27">
       <c r="A108" s="7" t="s">
         <v>19</v>
       </c>
@@ -24036,7 +24038,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27">
       <c r="A109" s="7" t="s">
         <v>19</v>
       </c>
@@ -24095,7 +24097,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27">
       <c r="A110" s="7" t="s">
         <v>19</v>
       </c>
@@ -24154,7 +24156,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27">
       <c r="A111" s="7" t="s">
         <v>19</v>
       </c>
@@ -24213,7 +24215,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27">
       <c r="A112" s="7" t="s">
         <v>19</v>
       </c>
@@ -24274,7 +24276,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27">
       <c r="A113" s="7" t="s">
         <v>19</v>
       </c>
@@ -24344,12 +24346,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data/codinglist_jo.xlsx
+++ b/resources/data/codinglist_jo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETC\seoulyeonsu\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2580" windowWidth="22710" windowHeight="8640"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="원본-화면목록" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>pcn</author>
   </authors>
   <commentList>
-    <comment ref="M15" authorId="0">
+    <comment ref="M15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="202">
   <si>
     <t>]}</t>
   </si>
@@ -881,6 +886,10 @@
     <t>../</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1491,7 +1500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1526,7 +1535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1738,7 +1747,7 @@
   <dimension ref="A1:AM117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AD79" sqref="AD79"/>
     </sheetView>
   </sheetViews>
@@ -11162,7 +11171,7 @@
       </c>
       <c r="B71" s="46" t="str">
         <f>'원본-화면목록'!A68</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>2</v>
@@ -11174,9 +11183,9 @@
       <c r="E71" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F71" s="27" t="str">
+      <c r="F71" s="27">
         <f>'원본-화면목록'!C68</f>
-        <v>미정</v>
+        <v>43416</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>39</v>
@@ -11576,7 +11585,7 @@
       </c>
       <c r="B74" s="46" t="str">
         <f>'원본-화면목록'!A71</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>2</v>
@@ -11588,9 +11597,9 @@
       <c r="E74" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F74" s="27" t="str">
+      <c r="F74" s="27">
         <f>'원본-화면목록'!C71</f>
-        <v>미정</v>
+        <v>43416</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>39</v>
@@ -11714,7 +11723,7 @@
       </c>
       <c r="B75" s="46" t="str">
         <f>'원본-화면목록'!A72</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>2</v>
@@ -11726,9 +11735,9 @@
       <c r="E75" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F75" s="27" t="str">
+      <c r="F75" s="27">
         <f>'원본-화면목록'!C72</f>
-        <v>미정</v>
+        <v>43416</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>39</v>
@@ -11852,7 +11861,7 @@
       </c>
       <c r="B76" s="46" t="str">
         <f>'원본-화면목록'!A73</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>2</v>
@@ -11864,9 +11873,9 @@
       <c r="E76" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="27" t="str">
+      <c r="F76" s="27">
         <f>'원본-화면목록'!C73</f>
-        <v>미정</v>
+        <v>43416</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>39</v>
@@ -11990,7 +11999,7 @@
       </c>
       <c r="B77" s="46" t="str">
         <f>'원본-화면목록'!A74</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>2</v>
@@ -12002,9 +12011,9 @@
       <c r="E77" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F77" s="27" t="str">
+      <c r="F77" s="27">
         <f>'원본-화면목록'!C74</f>
-        <v>미정</v>
+        <v>43416</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>39</v>
@@ -17572,8 +17581,8 @@
   <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R55" sqref="R55"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21591,13 +21600,13 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B68" s="55">
         <v>43416</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>57</v>
+      <c r="C68" s="8">
+        <v>43416</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>57</v>
@@ -21768,13 +21777,13 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B71" s="55">
         <v>43416</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>57</v>
+      <c r="C71" s="8">
+        <v>43416</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>57</v>
@@ -21829,13 +21838,13 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B72" s="55">
         <v>43416</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>57</v>
+      <c r="C72" s="8">
+        <v>43416</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>57</v>
@@ -21888,13 +21897,13 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B73" s="55">
         <v>43416</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>57</v>
+      <c r="C73" s="8">
+        <v>43416</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>57</v>
@@ -21947,13 +21956,13 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B74" s="55">
         <v>43416</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>57</v>
+      <c r="C74" s="8">
+        <v>43416</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>57</v>

--- a/resources/data/codinglist_jo.xlsx
+++ b/resources/data/codinglist_jo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="22710" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="22710" windowHeight="8640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="화면목록" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="202">
   <si>
     <t>]}</t>
   </si>
@@ -1217,7 +1217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,6 +1405,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1746,9 +1749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD79" sqref="AD79"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1797,148 +1800,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
     </row>
     <row r="2" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="69" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="67" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="67"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="11"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="12"/>
       <c r="P2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="64" t="s">
+      <c r="R2" s="71"/>
+      <c r="S2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="65" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="65"/>
+      <c r="AJ2" s="66"/>
       <c r="AK2" s="14"/>
       <c r="AL2" s="15"/>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -11307,9 +11310,9 @@
       <c r="A72" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="46" t="str">
+      <c r="B72" s="63" t="str">
         <f>'원본-화면목록'!A69</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>2</v>
@@ -11321,9 +11324,9 @@
       <c r="E72" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="27" t="str">
+      <c r="F72" s="27">
         <f>'원본-화면목록'!C69</f>
-        <v>미정</v>
+        <v>43416</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>39</v>
@@ -11445,9 +11448,9 @@
       <c r="A73" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="46" t="str">
+      <c r="B73" s="63" t="str">
         <f>'원본-화면목록'!A70</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>2</v>
@@ -11459,9 +11462,9 @@
       <c r="E73" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="27" t="str">
+      <c r="F73" s="27">
         <f>'원본-화면목록'!C70</f>
-        <v>미정</v>
+        <v>43416</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>39</v>
@@ -17514,47 +17517,47 @@
       </c>
     </row>
     <row r="117" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-      <c r="L117" s="66"/>
-      <c r="M117" s="66"/>
-      <c r="N117" s="66"/>
-      <c r="O117" s="66"/>
-      <c r="P117" s="66"/>
-      <c r="Q117" s="66"/>
-      <c r="R117" s="66"/>
-      <c r="S117" s="66"/>
-      <c r="T117" s="66"/>
-      <c r="U117" s="66"/>
-      <c r="V117" s="66"/>
-      <c r="W117" s="66"/>
-      <c r="X117" s="66"/>
-      <c r="Y117" s="66"/>
-      <c r="Z117" s="66"/>
-      <c r="AA117" s="66"/>
-      <c r="AB117" s="66"/>
-      <c r="AC117" s="66"/>
-      <c r="AD117" s="66"/>
-      <c r="AE117" s="66"/>
-      <c r="AF117" s="66"/>
-      <c r="AG117" s="66"/>
-      <c r="AH117" s="66"/>
-      <c r="AI117" s="66"/>
-      <c r="AJ117" s="66"/>
-      <c r="AK117" s="66"/>
-      <c r="AL117" s="66"/>
-      <c r="AM117" s="66"/>
+      <c r="A117" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
+      <c r="L117" s="67"/>
+      <c r="M117" s="67"/>
+      <c r="N117" s="67"/>
+      <c r="O117" s="67"/>
+      <c r="P117" s="67"/>
+      <c r="Q117" s="67"/>
+      <c r="R117" s="67"/>
+      <c r="S117" s="67"/>
+      <c r="T117" s="67"/>
+      <c r="U117" s="67"/>
+      <c r="V117" s="67"/>
+      <c r="W117" s="67"/>
+      <c r="X117" s="67"/>
+      <c r="Y117" s="67"/>
+      <c r="Z117" s="67"/>
+      <c r="AA117" s="67"/>
+      <c r="AB117" s="67"/>
+      <c r="AC117" s="67"/>
+      <c r="AD117" s="67"/>
+      <c r="AE117" s="67"/>
+      <c r="AF117" s="67"/>
+      <c r="AG117" s="67"/>
+      <c r="AH117" s="67"/>
+      <c r="AI117" s="67"/>
+      <c r="AJ117" s="67"/>
+      <c r="AK117" s="67"/>
+      <c r="AL117" s="67"/>
+      <c r="AM117" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17580,7 +17583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L72" sqref="L72"/>
     </sheetView>
@@ -21659,13 +21662,13 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B69" s="55">
         <v>43416</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>57</v>
+      <c r="C69" s="8">
+        <v>43416</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>57</v>
@@ -21718,13 +21721,13 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B70" s="55">
         <v>43416</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>57</v>
+      <c r="C70" s="8">
+        <v>43416</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>57</v>

--- a/resources/data/codinglist_jo.xlsx
+++ b/resources/data/codinglist_jo.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="203">
   <si>
     <t>]}</t>
   </si>
@@ -884,6 +884,10 @@
   </si>
   <si>
     <t>../</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2894,7 +2898,7 @@
       </c>
       <c r="B11" s="46" t="str">
         <f>'원본-화면목록'!A8</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>2</v>
@@ -2906,9 +2910,9 @@
       <c r="E11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="27" t="str">
+      <c r="F11" s="27">
         <f>'원본-화면목록'!C8</f>
-        <v>미정</v>
+        <v>43424</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>39</v>
@@ -3032,7 +3036,7 @@
       </c>
       <c r="B12" s="46" t="str">
         <f>'원본-화면목록'!A9</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>2</v>
@@ -3044,9 +3048,9 @@
       <c r="E12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="27" t="str">
+      <c r="F12" s="27">
         <f>'원본-화면목록'!C9</f>
-        <v>미정</v>
+        <v>43424</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>39</v>
@@ -3170,7 +3174,7 @@
       </c>
       <c r="B13" s="46" t="str">
         <f>'원본-화면목록'!A10</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>2</v>
@@ -3182,9 +3186,9 @@
       <c r="E13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="27">
         <f>'원본-화면목록'!C10</f>
-        <v>미정</v>
+        <v>43424</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>39</v>
@@ -3308,7 +3312,7 @@
       </c>
       <c r="B14" s="46" t="str">
         <f>'원본-화면목록'!A11</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>2</v>
@@ -3320,9 +3324,9 @@
       <c r="E14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="27">
         <f>'원본-화면목록'!C11</f>
-        <v>미정</v>
+        <v>43424</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>39</v>
@@ -3446,7 +3450,7 @@
       </c>
       <c r="B15" s="46" t="str">
         <f>'원본-화면목록'!A12</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>2</v>
@@ -3458,9 +3462,9 @@
       <c r="E15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="27" t="str">
+      <c r="F15" s="27">
         <f>'원본-화면목록'!C12</f>
-        <v>미정</v>
+        <v>43424</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>39</v>
@@ -3584,7 +3588,7 @@
       </c>
       <c r="B16" s="46" t="str">
         <f>'원본-화면목록'!A13</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>2</v>
@@ -3596,9 +3600,9 @@
       <c r="E16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="27" t="str">
+      <c r="F16" s="27">
         <f>'원본-화면목록'!C13</f>
-        <v>미정</v>
+        <v>43424</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>39</v>
@@ -3722,7 +3726,7 @@
       </c>
       <c r="B17" s="46" t="str">
         <f>'원본-화면목록'!A14</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>2</v>
@@ -3734,9 +3738,9 @@
       <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="27" t="str">
+      <c r="F17" s="27">
         <f>'원본-화면목록'!C14</f>
-        <v>미정</v>
+        <v>43424</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>39</v>
@@ -3860,7 +3864,7 @@
       </c>
       <c r="B18" s="46" t="str">
         <f>'원본-화면목록'!A15</f>
-        <v>대기</v>
+        <v>완료</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>2</v>
@@ -3872,9 +3876,9 @@
       <c r="E18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="27" t="str">
+      <c r="F18" s="27">
         <f>'원본-화면목록'!C15</f>
-        <v>미정</v>
+        <v>43424</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>39</v>
@@ -17584,8 +17588,8 @@
   <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L72" sqref="L72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18027,13 +18031,13 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="B8" s="55">
         <v>43425</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>57</v>
+      <c r="C8" s="8">
+        <v>43424</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>57</v>
@@ -18086,13 +18090,13 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="B9" s="55">
         <v>43425</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>57</v>
+      <c r="C9" s="8">
+        <v>43424</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>57</v>
@@ -18145,13 +18149,13 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="B10" s="55">
         <v>43425</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>57</v>
+      <c r="C10" s="8">
+        <v>43424</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>57</v>
@@ -18204,13 +18208,13 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="B11" s="55">
         <v>43425</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>57</v>
+      <c r="C11" s="8">
+        <v>43424</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>57</v>
@@ -18263,13 +18267,13 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="B12" s="55">
         <v>43425</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>57</v>
+      <c r="C12" s="8">
+        <v>43424</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>57</v>
@@ -18322,13 +18326,13 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="B13" s="55">
         <v>43425</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>57</v>
+      <c r="C13" s="8">
+        <v>43424</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>57</v>
@@ -18381,13 +18385,13 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="B14" s="55">
         <v>43425</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>57</v>
+      <c r="C14" s="8">
+        <v>43424</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>57</v>
@@ -18440,13 +18444,13 @@
     </row>
     <row r="15" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="B15" s="55">
         <v>43425</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>57</v>
+      <c r="C15" s="8">
+        <v>43424</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>57</v>
